--- a/KW2CPU.PCB Production Files/KW2CPU.PCB.BOM.xlsx
+++ b/KW2CPU.PCB Production Files/KW2CPU.PCB.BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="141">
   <si>
     <t>Qty</t>
   </si>
@@ -203,6 +203,9 @@
     <t>J1</t>
   </si>
   <si>
+    <t>Hirose DF12 Male Connector</t>
+  </si>
+  <si>
     <t>Hirose</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
     <t>J2</t>
   </si>
   <si>
+    <t>Flat programming connector</t>
+  </si>
+  <si>
     <t>MOLEX</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
     <t>J3</t>
   </si>
   <si>
+    <t>MMCX Antenna Connector</t>
+  </si>
+  <si>
     <t>Molex</t>
   </si>
   <si>
@@ -365,6 +374,9 @@
     <t>U3</t>
   </si>
   <si>
+    <t>RF Front End (PA / LNA)</t>
+  </si>
+  <si>
     <t>RFMD</t>
   </si>
   <si>
@@ -399,6 +411,9 @@
   </si>
   <si>
     <t>X1</t>
+  </si>
+  <si>
+    <t>32Khz Crystal</t>
   </si>
   <si>
     <t>EPSON</t>
@@ -532,7 +547,7 @@
   <dimension ref="1:35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -929,11 +944,14 @@
       <c r="E15" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="F15" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="G15" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,22 +959,25 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,19 +985,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>734152061</v>
@@ -987,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>18</v>
@@ -996,16 +1020,16 @@
         <v>18</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,25 +1037,25 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,25 +1063,25 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,22 +1092,22 @@
         <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,25 +1115,25 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,25 +1141,25 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,25 +1167,25 @@
         <v>2</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="H24" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,25 +1219,25 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,22 +1248,22 @@
         <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,22 +1274,22 @@
         <v>0</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>34</v>
@@ -1276,19 +1300,19 @@
         <v>12</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>34</v>
@@ -1299,25 +1323,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,22 +1349,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,22 +1375,22 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,19 +1398,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>34</v>
@@ -1394,22 +1421,25 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,25 +1447,25 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/KW2CPU.PCB Production Files/KW2CPU.PCB.BOM.xlsx
+++ b/KW2CPU.PCB Production Files/KW2CPU.PCB.BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
   <si>
     <t>Qty</t>
   </si>
@@ -23,18 +23,12 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Device</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
     <t>Parts</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>MFGN</t>
   </si>
   <si>
@@ -44,27 +38,18 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>RF-R</t>
-  </si>
-  <si>
     <t>RF-L0201</t>
   </si>
   <si>
     <t>R4, R5</t>
   </si>
   <si>
-    <t>RF resistor pads for FSL reference design</t>
-  </si>
-  <si>
     <t>Panasonic</t>
   </si>
   <si>
     <t>ERJ-1GN0R00C</t>
   </si>
   <si>
-    <t>RF-RRFMD</t>
-  </si>
-  <si>
     <t>RFMD0402</t>
   </si>
   <si>
@@ -83,18 +68,12 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>RF-C0402</t>
-  </si>
-  <si>
     <t>C0402</t>
   </si>
   <si>
     <t>C5, C15, C16, C19</t>
   </si>
   <si>
-    <t>RF capacitor pads for FSL reference design</t>
-  </si>
-  <si>
     <t>Murata</t>
   </si>
   <si>
@@ -104,9 +83,6 @@
     <t>0.2pF</t>
   </si>
   <si>
-    <t>RF-CRFMD</t>
-  </si>
-  <si>
     <t>C25</t>
   </si>
   <si>
@@ -140,9 +116,6 @@
     <t>1.2pF</t>
   </si>
   <si>
-    <t>RF-C</t>
-  </si>
-  <si>
     <t>C20</t>
   </si>
   <si>
@@ -155,15 +128,9 @@
     <t>1.5nH</t>
   </si>
   <si>
-    <t>RF-L</t>
-  </si>
-  <si>
     <t>L5</t>
   </si>
   <si>
-    <t>RF inductor pads for FSL reference design</t>
-  </si>
-  <si>
     <t>1000pF</t>
   </si>
   <si>
@@ -245,9 +212,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>Serial EEPROM 4K/ 8K , SPI bus</t>
-  </si>
-  <si>
     <t>Microchip</t>
   </si>
   <si>
@@ -257,33 +221,21 @@
     <t>3.3V</t>
   </si>
   <si>
-    <t>MCP1804T-3302I</t>
-  </si>
-  <si>
     <t>SOT223</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>VOLTAGE REGULATOR</t>
-  </si>
-  <si>
     <t>32.768kHz</t>
   </si>
   <si>
-    <t>32KHZ</t>
-  </si>
-  <si>
     <t>32KHZSMD</t>
   </si>
   <si>
     <t>X1</t>
   </si>
   <si>
-    <t>32Khz Crystal</t>
-  </si>
-  <si>
     <t>EPSON</t>
   </si>
   <si>
@@ -299,9 +251,6 @@
     <t>X2</t>
   </si>
   <si>
-    <t>32Mhz crystal for KW2 radio</t>
-  </si>
-  <si>
     <t>NDK</t>
   </si>
   <si>
@@ -329,18 +278,12 @@
     <t>50Ohm</t>
   </si>
   <si>
-    <t>ANTENNA_U.FL</t>
-  </si>
-  <si>
     <t>U.FL</t>
   </si>
   <si>
     <t>A1, A2</t>
   </si>
   <si>
-    <t>U.FL Antenna Connector</t>
-  </si>
-  <si>
     <t>Hirose</t>
   </si>
   <si>
@@ -398,12 +341,18 @@
     <t>J1</t>
   </si>
   <si>
-    <t>Hirose DF12 Male Connector</t>
-  </si>
-  <si>
     <t>DF12(3.0)-40DS-0.5V(86)</t>
   </si>
   <si>
+    <t>FIDUCIAL</t>
+  </si>
+  <si>
+    <t>FIDUCIAL_1MM</t>
+  </si>
+  <si>
+    <t>U$2, U$3, U$4, U$5, U$6, U$7</t>
+  </si>
+  <si>
     <t>MKW21D</t>
   </si>
   <si>
@@ -413,9 +362,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>Freescale's new Kinetis KW20 wireless MCUs expands on the successful Kinetis MCU family based on the ARM® Cortex?-M4 CPU core.</t>
-  </si>
-  <si>
     <t>Freescale</t>
   </si>
   <si>
@@ -431,16 +377,10 @@
     <t>TP1, TP2, TP3, TP4, TP5, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18</t>
   </si>
   <si>
-    <t>TEST PIN</t>
-  </si>
-  <si>
     <t>RF6555</t>
   </si>
   <si>
     <t>U3</t>
-  </si>
-  <si>
-    <t>RF Front End (PA / LNA)</t>
   </si>
   <si>
     <t>RFMD</t>
@@ -453,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -473,6 +413,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -517,8 +463,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,53 +489,53 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="1:37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.28571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.8571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.81632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.2397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.55102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.81632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.55102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -595,22 +545,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,19 +565,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>18</v>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -644,22 +582,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,25 +599,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,22 +619,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,48 +636,36 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,22 +673,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>18</v>
+      <c r="G9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,22 +690,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,25 +707,19 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,22 +727,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,25 +744,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,25 +764,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,25 +784,19 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,25 +804,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,25 +824,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,25 +844,19 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,25 +864,19 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,22 +884,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,25 +901,19 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,22 +921,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,25 +938,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,25 +958,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,25 +978,19 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,25 +998,19 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,25 +1018,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,25 +1038,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1270,25 +1058,19 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,25 +1078,19 @@
         <v>4</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,25 +1098,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,16 +1118,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,100 +1132,93 @@
         <v>1</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>139</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
